--- a/progetto_ml/HomeCredit_description.xlsx
+++ b/progetto_ml/HomeCredit_description.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\massi\source\datascience\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\massi\source\datascience\progetto_ml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A54DDA3-F1C4-4EE1-858A-9EF00597F249}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9794DA75-1679-48CC-ACC4-FF5A6437A695}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-20617" yWindow="503" windowWidth="20715" windowHeight="13274" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomeCredit_description" sheetId="1" r:id="rId1"/>
@@ -1156,8 +1156,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1288,14 +1288,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1644,8 +1636,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2000,11 +1992,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2017,13 +2009,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
@@ -2121,7 +2113,7 @@
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D8" t="s">
@@ -2135,7 +2127,7 @@
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D9" t="s">
@@ -2149,7 +2141,7 @@
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D10" t="s">
@@ -2261,7 +2253,7 @@
       <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D18" t="s">
@@ -2444,7 +2436,7 @@
       <c r="B30" t="s">
         <v>4</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D30" t="s">
